--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,43 +43,46 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>cut</t>
   </si>
   <si>
     <t>emergency</t>
@@ -88,12 +91,12 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -103,108 +106,114 @@
     <t>oil</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>friends</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
@@ -220,7 +229,7 @@
     <t>increase</t>
   </si>
   <si>
-    <t>check</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,16 +677,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8184931506849316</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,16 +827,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,16 +877,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,16 +977,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8381201044386423</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5932203389830508</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5490196078431373</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5387596899224806</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C13">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7911227154046997</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5343915343915344</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="D14">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>88</v>
+        <v>248</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5033557046979866</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.76875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7682926829268293</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4533333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7676056338028169</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1406,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3454545454545455</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1456,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.257936507936508</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C19">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>0.7407407407407407</v>
@@ -1497,13 +1506,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2467532467532468</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,13 +1556,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2333333333333333</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1597,13 +1606,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1447721179624665</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>319</v>
+        <v>68</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1639,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,49 +1656,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06666666666666667</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C23">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>314</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L23">
+        <v>43</v>
+      </c>
+      <c r="M23">
+        <v>43</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>20</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>280</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L23">
-        <v>24</v>
-      </c>
-      <c r="M23">
-        <v>24</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,28 +1706,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0119201030927835</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3067</v>
+        <v>280</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K24">
         <v>0.6785714285714286</v>
@@ -1747,37 +1756,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01074766355140187</v>
+        <v>0.01122544434050514</v>
       </c>
       <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>0.17</v>
+      </c>
+      <c r="F25">
+        <v>0.83</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2114</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L25">
         <v>23</v>
       </c>
-      <c r="D25">
-        <v>26</v>
-      </c>
-      <c r="E25">
-        <v>0.12</v>
-      </c>
-      <c r="F25">
-        <v>0.88</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2117</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25">
-        <v>0.675</v>
-      </c>
-      <c r="L25">
-        <v>27</v>
-      </c>
       <c r="M25">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1789,21 +1798,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.01063486948114728</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>0.11</v>
+      </c>
+      <c r="F26">
+        <v>0.89</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3070</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.6352941176470588</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L26">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M26">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1815,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.5932203389830508</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L27">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1841,38 +1874,38 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.5851063829787234</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K29">
         <v>0.5846153846153846</v>
@@ -1898,16 +1931,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5690376569037657</v>
+        <v>0.58</v>
       </c>
       <c r="L30">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1919,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1945,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.54</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1971,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5280898876404494</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1997,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5111111111111111</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2023,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.392156862745098</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2049,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.3424657534246575</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2075,21 +2108,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.328125</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2101,21 +2134,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.282051282051282</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2127,33 +2160,85 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.1851851851851852</v>
+        <v>0.3125</v>
       </c>
       <c r="L39">
         <v>20</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>88</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41">
+        <v>0.006271558482282847</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>32</v>
+      </c>
+      <c r="N41">
+        <v>0.62</v>
+      </c>
+      <c r="O41">
+        <v>0.38</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3169</v>
       </c>
     </row>
   </sheetData>
